--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239369.1423989752</v>
+        <v>-241833.2058426799</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>66.124382850137</v>
       </c>
       <c r="F2" t="n">
-        <v>327.6880603744133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>156.9627621709082</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>149.3991884271815</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>76.12883110977556</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.67474272089926</v>
+        <v>192.1784823165505</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>143.829461435072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.1774387435819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>275.9289298340546</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>309.9869979627157</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11.31173967923155</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>161.2026687524964</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>139.1630968205461</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>221.6488161050624</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.74333192602201</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>234.7133634178559</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>155.2435806730866</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>61.16269384155272</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.0572831767841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812005</v>
+        <v>80.08971311158712</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>106.5290632934499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>13.74238375877706</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>81.13054509253637</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1609.33027566861</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C2" t="n">
-        <v>1240.367758728198</v>
+        <v>883.8708262827843</v>
       </c>
       <c r="D2" t="n">
-        <v>1240.367758728198</v>
+        <v>883.8708262827843</v>
       </c>
       <c r="E2" t="n">
-        <v>854.5795061299539</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3056.766908519186</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3056.766908519186</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2725.704021175616</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2372.935365905501</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>1999.469607644422</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609.33027566861</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>843.989196616391</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>843.989196616391</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>589.3047084105042</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>589.3047084105042</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X4" t="n">
-        <v>361.3151575124869</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.3151575124869</v>
+        <v>217.4203875707506</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118628</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832069</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1879.829578210439</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1510.867061270028</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2317.603609306213</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2266.429418274561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>228.0547555205106</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="C10" t="n">
-        <v>228.0547555205106</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="D10" t="n">
-        <v>77.93811610817488</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="E10" t="n">
-        <v>77.93811610817488</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W10" t="n">
-        <v>409.7032203507503</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X10" t="n">
-        <v>409.7032203507503</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.7032203507503</v>
+        <v>410.9915598002983</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,19 +5124,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432834</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049275</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925917</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>625.3800815101986</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304621</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,13 +5361,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5780,22 +5780,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797186</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6218,52 +6218,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532801</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3090381835199</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6528,40 +6528,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.5507239167111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2182.158203687148</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1893.082977031346</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469509</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>315.8059872221248</v>
       </c>
       <c r="F2" t="n">
-        <v>79.18798536729814</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>112.9713457258429</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.257951202385101</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>30.48882721876564</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>32.15184655856214</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.08864825591529</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856647</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>17.4242799059721</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>24.58839950885067</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856931</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>73.62417772602069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.52737017531066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.8635921600923</v>
+        <v>68.52575990662524</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>203.6630665685112</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="G2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="J2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="K2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="L2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="M2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="H2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="I2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363174</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43110.95474649299</v>
+        <v>43110.9547464928</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26439,25 +26439,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="K4" t="n">
+        <v>14826.69604186746</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14826.69604186737</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496081</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1205068.67443258</v>
+        <v>-1205289.805746555</v>
       </c>
       <c r="C6" t="n">
-        <v>106359.9790336601</v>
+        <v>106359.9790336602</v>
       </c>
       <c r="D6" t="n">
-        <v>106359.9790336603</v>
+        <v>106359.9790336606</v>
       </c>
       <c r="E6" t="n">
-        <v>-138681.7127893773</v>
+        <v>-138716.4507148134</v>
       </c>
       <c r="F6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="G6" t="n">
-        <v>186730.7490179778</v>
+        <v>186696.0110925419</v>
       </c>
       <c r="H6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="I6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.0110925424</v>
       </c>
       <c r="J6" t="n">
-        <v>-30800.45337929986</v>
+        <v>-30835.19130473533</v>
       </c>
       <c r="K6" t="n">
-        <v>186730.7490179778</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="L6" t="n">
-        <v>186730.7490179777</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="M6" t="n">
-        <v>101675.7210824659</v>
+        <v>101640.9831570302</v>
       </c>
       <c r="N6" t="n">
-        <v>186730.7490179776</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="O6" t="n">
-        <v>186730.7490179778</v>
+        <v>186696.0110925421</v>
       </c>
       <c r="P6" t="n">
-        <v>162481.2745465979</v>
+        <v>162481.2745465982</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>297.9503799276105</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>46.95520796871193</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>30.43279175475578</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>143.4201181663936</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.5631959351543</v>
+        <v>194.0594563395031</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>142.3823767705409</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.40721460851285</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>78.75411178662836</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>59.74410271575329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>134.1093083436997</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>4.823139506531788</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
